--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1424.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1424.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.756156006065225</v>
+        <v>0.8245447874069214</v>
       </c>
       <c r="B1">
-        <v>2.084403971695369</v>
+        <v>1.518949627876282</v>
       </c>
       <c r="C1">
-        <v>2.139067372653102</v>
+        <v>6.416202545166016</v>
       </c>
       <c r="D1">
-        <v>2.655778653399048</v>
+        <v>1.828590273857117</v>
       </c>
       <c r="E1">
-        <v>2.925329044388434</v>
+        <v>1.068598508834839</v>
       </c>
     </row>
   </sheetData>
